--- a/order.xlsx
+++ b/order.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koppo\OneDrive\Desktop\powerbI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITS\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1487AE8-2632-4C13-9C01-7B1F30A4C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,16 +166,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,20 +203,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,46 +515,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>45366</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -533,14 +578,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>45367</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -556,14 +601,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>45368</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -579,14 +624,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>45369</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -602,14 +647,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>45370</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -625,14 +670,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>45371</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -648,14 +693,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>45372</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -671,14 +716,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>45373</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -694,14 +739,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>45374</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -717,14 +762,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>45375</v>
       </c>
       <c r="D11" s="1" t="s">
